--- a/mobi_client/mobi_client/mobi_config/no_limit_state_excel/100_异质物研究地图配置.xlsx
+++ b/mobi_client/mobi_client/mobi_config/no_limit_state_excel/100_异质物研究地图配置.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160FDAA6-C213-4143-B09B-91D5257F7E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FC37F3-BB34-44BD-BD46-7447B47D3299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28410" yWindow="0" windowWidth="13500" windowHeight="20835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26460" yWindow="1455" windowWidth="13500" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HexMap" sheetId="1" r:id="rId1"/>

--- a/mobi_client/mobi_client/mobi_config/no_limit_state_excel/100_异质物研究地图配置.xlsx
+++ b/mobi_client/mobi_client/mobi_config/no_limit_state_excel/100_异质物研究地图配置.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FC37F3-BB34-44BD-BD46-7447B47D3299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64C286D-282B-46F0-964C-2A295CFB897D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26460" yWindow="1455" windowWidth="13500" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HexMap" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,19 @@
     <t>id</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>邻居节点</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>neighboursId</t>
-  </si>
-  <si>
-    <t>int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>aint</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>3|6|2|5|7|4|</t>
@@ -183,29 +186,7 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -225,6 +206,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -233,11 +221,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -261,7 +264,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39945677053132728"/>
+        <fgColor theme="3" tint="0.39948728904080327"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,7 +303,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -311,26 +314,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -641,7 +644,7 @@
   <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -653,23 +656,23 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -677,7 +680,7 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -733,7 +736,7 @@
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -765,7 +768,7 @@
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1002,8 +1005,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>